--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17CEFDBA-DB35-4EFE-975C-803B2BC49A3D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571B694-6B29-425B-8F03-17A82C150AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19760" yWindow="2870" windowWidth="24500" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,12 +74,6 @@
     </r>
   </si>
   <si>
-    <t>Scientific Reports.</t>
-  </si>
-  <si>
-    <t>Manuscript reviewing</t>
-  </si>
-  <si>
     <t>2017-2020</t>
   </si>
   <si>
@@ -90,6 +84,12 @@
   </si>
   <si>
     <t>BBSRC Discovery Fellows award</t>
+  </si>
+  <si>
+    <t>Scientific Reports</t>
+  </si>
+  <si>
+    <t>Article review</t>
   </si>
 </sst>
 </file>
@@ -438,14 +438,14 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" customWidth="1"/>
+    <col min="3" max="3" width="6.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -488,22 +488,22 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="C5">
         <v>2018</v>
@@ -511,10 +511,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>2021</v>
@@ -522,10 +522,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2021</v>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2571B694-6B29-425B-8F03-17A82C150AE8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A9D807-3375-4ED1-9485-EB8AF37923E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="13970" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3480" yWindow="6120" windowWidth="19080" windowHeight="10030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>with</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>Article review</t>
+  </si>
+  <si>
+    <t>Frontiers in Immunology</t>
   </si>
 </sst>
 </file>
@@ -435,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -531,6 +534,17 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>2022</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cofinlay\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A9D807-3375-4ED1-9485-EB8AF37923E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C62FFF-6583-4BDC-9F94-652AA9192AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="6120" windowWidth="19080" windowHeight="10030" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22590" yWindow="9810" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>with</t>
   </si>
@@ -93,6 +93,27 @@
   </si>
   <si>
     <t>Frontiers in Immunology</t>
+  </si>
+  <si>
+    <t>Session Chair</t>
+  </si>
+  <si>
+    <t>Interview panel</t>
+  </si>
+  <si>
+    <t>Post-Doctoral scientist at TCD</t>
+  </si>
+  <si>
+    <t>Research Assistant at TCD</t>
+  </si>
+  <si>
+    <t>PhD Candidate in TCD</t>
+  </si>
+  <si>
+    <t>Continuation Viva</t>
+  </si>
+  <si>
+    <t>Irish Nephrology Society Conference</t>
   </si>
 </sst>
 </file>
@@ -438,20 +459,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.54296875" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -479,7 +500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -490,7 +511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -501,7 +522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -512,7 +533,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -523,7 +544,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -534,7 +555,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -542,6 +563,50 @@
         <v>18</v>
       </c>
       <c r="C8">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
         <v>2022</v>
       </c>
     </row>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35C62FFF-6583-4BDC-9F94-652AA9192AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569499B5-2110-449F-9BF7-6A607DD47024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22590" yWindow="9810" windowWidth="22020" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27090" yWindow="6225" windowWidth="36405" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>with</t>
   </si>
@@ -115,12 +115,18 @@
   <si>
     <t>Irish Nephrology Society Conference</t>
   </si>
+  <si>
+    <t>Venture capital funded Trinity Spinout – Parvalis Tx</t>
+  </si>
+  <si>
+    <t>Patent (inventor)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,6 +159,13 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,11 +187,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -610,7 +624,19 @@
         <v>2022</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{569499B5-2110-449F-9BF7-6A607DD47024}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB82AC-DDB8-441E-87F8-7B2D13749F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27090" yWindow="6225" windowWidth="36405" windowHeight="10845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11250" yWindow="990" windowWidth="27615" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>with</t>
   </si>
@@ -120,6 +120,27 @@
   </si>
   <si>
     <t>Patent (inventor)</t>
+  </si>
+  <si>
+    <t>Kidney Research UK</t>
+  </si>
+  <si>
+    <t>2021-2022</t>
+  </si>
+  <si>
+    <t>2022-current</t>
+  </si>
+  <si>
+    <t>Thesis committee</t>
+  </si>
+  <si>
+    <t>2021-current</t>
+  </si>
+  <si>
+    <t>School of Computer Science and Statistics PhD student</t>
+  </si>
+  <si>
+    <t>School of Medicine PhD student</t>
   </si>
 </sst>
 </file>
@@ -473,17 +494,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="67.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -576,8 +597,8 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
-        <v>2022</v>
+      <c r="C8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -609,8 +630,8 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11">
-        <v>2021</v>
+      <c r="C11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -633,6 +654,39 @@
       </c>
       <c r="C13">
         <v>2021</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FB82AC-DDB8-441E-87F8-7B2D13749F39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE20BD7-DD04-4BCC-9F5F-FEC9A4EFA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11250" yWindow="990" windowWidth="27615" windowHeight="18765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="2475" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>with</t>
   </si>
@@ -126,21 +126,6 @@
   </si>
   <si>
     <t>2021-2022</t>
-  </si>
-  <si>
-    <t>2022-current</t>
-  </si>
-  <si>
-    <t>Thesis committee</t>
-  </si>
-  <si>
-    <t>2021-current</t>
-  </si>
-  <si>
-    <t>School of Computer Science and Statistics PhD student</t>
-  </si>
-  <si>
-    <t>School of Medicine PhD student</t>
   </si>
 </sst>
 </file>
@@ -494,10 +479,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -667,28 +652,6 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE20BD7-DD04-4BCC-9F5F-FEC9A4EFA197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B244642-DC4C-465E-868D-80DD34AA8BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="2475" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="285" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -482,7 +482,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection sqref="A1:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B244642-DC4C-465E-868D-80DD34AA8BE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C53DC99-7AF5-4E66-B4C1-08B864F9BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="285" windowWidth="23760" windowHeight="13635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3330" yWindow="3030" windowWidth="29490" windowHeight="17970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>with</t>
   </si>
@@ -126,6 +126,12 @@
   </si>
   <si>
     <t>2021-2022</t>
+  </si>
+  <si>
+    <t>Review Editor</t>
+  </si>
+  <si>
+    <t>Frontiers in Immunology (in negotiation)</t>
   </si>
 </sst>
 </file>
@@ -479,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C14"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -652,6 +658,17 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>2023</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cloud\Dropbox (Personal)\Jobs\CV and Publications\CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C53DC99-7AF5-4E66-B4C1-08B864F9BF3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC56A8-F046-8542-946D-B961D3CB4E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3330" yWindow="3030" windowWidth="29490" windowHeight="17970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3340" yWindow="3040" windowWidth="29500" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
   <si>
     <t>with</t>
   </si>
@@ -128,17 +128,20 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t>Review Editor</t>
-  </si>
-  <si>
-    <t>Frontiers in Immunology (in negotiation)</t>
+    <t>Kidney Kinternational</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annals of the Rheumatic Diseases </t>
+  </si>
+  <si>
+    <t>British Fellowship awarding body (wihtheld)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +181,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -199,12 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -485,20 +496,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -526,7 +537,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -537,7 +548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -548,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -559,7 +570,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -570,7 +581,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -581,7 +592,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -592,7 +603,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -603,7 +614,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -614,7 +625,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -625,7 +636,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -636,7 +647,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -647,7 +658,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -658,14 +669,36 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C15">
+      <c r="C16">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17">
         <v>2023</v>
       </c>
     </row>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FC56A8-F046-8542-946D-B961D3CB4E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3C745A-B35C-F345-9B5B-403E9A5D9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="3040" windowWidth="29500" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>with</t>
   </si>
@@ -134,7 +134,16 @@
     <t xml:space="preserve">Annals of the Rheumatic Diseases </t>
   </si>
   <si>
-    <t>British Fellowship awarding body (wihtheld)</t>
+    <t>British Fellowship awarding body (name witheld)</t>
+  </si>
+  <si>
+    <t>European Journal of Immunology</t>
+  </si>
+  <si>
+    <t>Poster session reviewer</t>
+  </si>
+  <si>
+    <t>European Congress of Immunology</t>
   </si>
 </sst>
 </file>
@@ -496,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -702,6 +711,28 @@
         <v>2023</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3C745A-B35C-F345-9B5B-403E9A5D9F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216BE351-3B14-744A-BD8F-E903241821AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3340" yWindow="3040" windowWidth="29500" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>with</t>
   </si>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -733,6 +733,17 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>2024</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216BE351-3B14-744A-BD8F-E903241821AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D3725F-267E-034F-B4C4-B500747191E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="3040" windowWidth="29500" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="2280" windowWidth="12960" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
     <t>Interview panel</t>
   </si>
   <si>
-    <t>Post-Doctoral scientist at TCD</t>
-  </si>
-  <si>
     <t>Research Assistant at TCD</t>
   </si>
   <si>
@@ -128,15 +125,9 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t>Kidney Kinternational</t>
-  </si>
-  <si>
     <t xml:space="preserve">Annals of the Rheumatic Diseases </t>
   </si>
   <si>
-    <t>British Fellowship awarding body (name witheld)</t>
-  </si>
-  <si>
     <t>European Journal of Immunology</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>European Congress of Immunology</t>
+  </si>
+  <si>
+    <t>Kidney International</t>
+  </si>
+  <si>
+    <t>British Fellowship awarding body (name withheld)</t>
+  </si>
+  <si>
+    <t>Post-doctoral scientist at TCD</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -609,7 +609,7 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -617,7 +617,7 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -628,7 +628,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -639,18 +639,18 @@
         <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -658,10 +658,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -672,7 +672,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -683,7 +683,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -694,7 +694,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -705,7 +705,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -716,7 +716,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18">
         <v>2024</v>
@@ -724,10 +724,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C19">
         <v>2024</v>
@@ -738,7 +738,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C20">
         <v>2024</v>

--- a/data/reviewing.xlsx
+++ b/data/reviewing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11012"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/conorisco/Dropbox (Personal)/Jobs/CV and Publications/CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88D3725F-267E-034F-B4C4-B500747191E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE9BCD0-4BE4-4B4B-B38E-3F2538F1910C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1760" yWindow="2280" windowWidth="12960" windowHeight="17980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1760" yWindow="2280" windowWidth="28160" windowHeight="22380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
   <si>
     <t>with</t>
   </si>
@@ -144,6 +144,15 @@
   </si>
   <si>
     <t>Post-doctoral scientist at TCD</t>
+  </si>
+  <si>
+    <t>Nature Communications</t>
+  </si>
+  <si>
+    <t>JSAN</t>
+  </si>
+  <si>
+    <t>2023-2025</t>
   </si>
 </sst>
 </file>
@@ -505,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -744,6 +753,28 @@
         <v>2024</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
